--- a/biology/Botanique/Didymoglossum_angustifrons/Didymoglossum_angustifrons.xlsx
+++ b/biology/Botanique/Didymoglossum_angustifrons/Didymoglossum_angustifrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymoglossum angustifrons est une espèce de fougères de la famille des Hyménophyllacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a les caractéristiques suivantes :
 un long rhizome traçant, densément couvert de poils bruns à noirâtres et sans racines ;
@@ -520,7 +534,7 @@
 une nervuration catadrome.
 les sores sont peu nombreux - un à trois au plus par limbe - ; ils sont situés en extrémité des segments du limbe, et sont solitaires sur l'apex de ces segments ;
 une indusie tubulaire, aux lèvres très marquées et dont les cellules sont distinctes des tissus du limbe.
-Comme les espèces du genre, le prothalle de Didymoglossum angustifrons compte 34 chromosomes[1].
+Comme les espèces du genre, le prothalle de Didymoglossum angustifrons compte 34 chromosomes.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, presque strictement épiphyte, est présente en Amérique tropicale (Venezuela) et aux Caraïbes (en particulier aux Antilles - Guadeloupe).
 </t>
@@ -580,13 +596,15 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite une première fois par Antoine Laurent Apollinaire Fée à partir d'un échantillon collecté en Guadeloupe. Il la place dans le genre Didymoglossum[2].
-En 1897, Konrad Hermann Heinrich Christ en fait une variété de Trichomanes muscoides Sw. : Trichomanes muscoides var. angustifrons (Fée) Christ[3].
-En 1962, Jan Gerard Wessels Boer la reclasse dans le genre Trichomanes : Trichomanes angustifrons (Fée) Wess.Boer[4].
-En 1968, Conrad Vernon Morton confirme ce reclassement dans le genre Trichomanes en précisant le sous-genre Didymoglossum et la section Didymoglossum[5].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la replacent dans son genre d'origine, sous-genre Didymoglossum et en font une espèce représentative de ce sous-genre[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite une première fois par Antoine Laurent Apollinaire Fée à partir d'un échantillon collecté en Guadeloupe. Il la place dans le genre Didymoglossum.
+En 1897, Konrad Hermann Heinrich Christ en fait une variété de Trichomanes muscoides Sw. : Trichomanes muscoides var. angustifrons (Fée) Christ.
+En 1962, Jan Gerard Wessels Boer la reclasse dans le genre Trichomanes : Trichomanes angustifrons (Fée) Wess.Boer.
+En 1968, Conrad Vernon Morton confirme ce reclassement dans le genre Trichomanes en précisant le sous-genre Didymoglossum et la section Didymoglossum.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la replacent dans son genre d'origine, sous-genre Didymoglossum et en font une espèce représentative de ce sous-genre.
 Cette espèce compte donc deux synonymes liés aux remaniements de la famille :
 Trichomanes angustifrons (Fée) Wess.Boer
 Trichomanes muscoides var. angustifrons (Fée) Christ
